--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.931899999999999</v>
+        <v>9.207199999999997</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.7268</v>
+        <v>6.571999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.3511</v>
+        <v>5.554199999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.2895</v>
+        <v>-14.0701</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.485200000000005</v>
+        <v>6.397400000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.0413</v>
+        <v>-12.6207</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.621</v>
+        <v>-11.38099999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.66610000000002</v>
+        <v>17.42840000000002</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.77030000000001</v>
+        <v>16.8296</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.0471</v>
+        <v>16.8918</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.73489999999999</v>
+        <v>-14.24939999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.360499999999999</v>
+        <v>5.221399999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.4017</v>
+        <v>16.0982</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.54359999999999</v>
+        <v>16.47649999999999</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.805199999999989</v>
+        <v>9.841899999999988</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.4557</v>
+        <v>-12.5</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.91209999999999</v>
+        <v>15.92489999999999</v>
       </c>
     </row>
     <row r="21">
@@ -788,10 +788,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.870699999999994</v>
+        <v>8.884299999999989</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.4001</v>
+        <v>-12.0764</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.2625</v>
+        <v>-12.0437</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.08530000000002</v>
+        <v>16.91760000000002</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.9845</v>
+        <v>-12.1433</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.689400000000001</v>
+        <v>5.835600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.773900000000003</v>
+        <v>4.774099999999998</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.3482</v>
+        <v>-10.29690000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.685</v>
+        <v>4.784599999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.197799999999996</v>
+        <v>7.541299999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.43910000000001</v>
+        <v>-11.63830000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8249</v>
+        <v>15.7253</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.273599999999995</v>
+        <v>9.271799999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.6089</v>
+        <v>-12.28930000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.6049</v>
+        <v>-12.8926</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.14330000000001</v>
+        <v>17.20150000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.98439999999999</v>
+        <v>-14.27329999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.03289999999999</v>
+        <v>-13.75739999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,16 +1213,16 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.607499999999999</v>
+        <v>5.761599999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.06869999999999</v>
+        <v>-13.78399999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.22609999999999</v>
+        <v>16.2842</v>
       </c>
     </row>
     <row r="47">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.02109999999998</v>
+        <v>-13.98789999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5117</v>
+        <v>16.73889999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.147000000000003</v>
+        <v>6.284000000000002</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.7196</v>
+        <v>-13.12390000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.056900000000001</v>
+        <v>5.880100000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.698499999999998</v>
+        <v>5.748899999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.01219999999999</v>
+        <v>-13.68649999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>6.030000000000001</v>
+        <v>6.693400000000002</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.6336</v>
+        <v>6.072399999999996</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.7772</v>
+        <v>-13.1659</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.697700000000002</v>
+        <v>5.736599999999998</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.4366</v>
+        <v>-11.738</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.1121</v>
+        <v>-11.1672</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.164200000000001</v>
+        <v>8.358900000000002</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.26659999999999</v>
+        <v>9.30139999999999</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.21469999999998</v>
+        <v>16.24419999999998</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.054400000000005</v>
+        <v>8.946300000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.67430000000001</v>
+        <v>-11.27330000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.23719999999999</v>
+        <v>-13.46569999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-14.20399999999999</v>
+        <v>-13.7684</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.551999999999992</v>
+        <v>5.533299999999994</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.2499</v>
+        <v>-11.311</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.88690000000002</v>
+        <v>18.26320000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2083,13 +2083,13 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.4992</v>
+        <v>-11.2119</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.5473</v>
+        <v>16.5574</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.45759999999999</v>
+        <v>16.30209999999998</v>
       </c>
     </row>
     <row r="100">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.357099999999999</v>
+        <v>6.3714</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
